--- a/codes/test_shell_output/testavgWordL.xlsx
+++ b/codes/test_shell_output/testavgWordL.xlsx
@@ -376,309 +376,309 @@
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
     </row>
     <row r="6" spans="2:101">
       <c r="B6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="C6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="D6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="E6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="F6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="G6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="H6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="I6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="J6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="K6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="L6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="M6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="N6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="O6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="P6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="R6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="S6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="T6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="U6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="V6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="W6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="X6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="Y6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="Z6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AB6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AC6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AD6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AE6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AG6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AH6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AI6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AL6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AM6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AN6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AO6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AQ6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AR6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AS6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AT6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AV6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AW6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AX6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AY6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BA6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BB6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BC6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BD6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BF6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BG6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BH6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BI6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BK6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BL6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BM6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BN6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BP6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BQ6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BR6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BS6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BU6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BV6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BW6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BX6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="BZ6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CA6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CB6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CC6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CE6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CF6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CG6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CH6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CI6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CJ6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CK6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CL6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CM6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CN6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CO6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CP6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CQ6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CR6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CS6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CT6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CU6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CV6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
       <c r="CW6" s="1">
-        <v>4.412</v>
+        <v>4.184491978609626</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testavgWordL.xlsx
+++ b/codes/test_shell_output/testavgWordL.xlsx
@@ -376,309 +376,309 @@
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
     </row>
     <row r="6" spans="2:101">
       <c r="B6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="C6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="D6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="E6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="F6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="G6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="H6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="I6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="J6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="K6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="L6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="M6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="N6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="O6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="P6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="R6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="S6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="T6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="U6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="V6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="W6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="X6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="Y6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="Z6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AB6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AC6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AD6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AE6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AG6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AH6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AI6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AL6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AM6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AN6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AO6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AQ6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AR6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AS6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AT6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AV6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AW6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AX6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AY6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BA6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BB6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BC6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BD6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BF6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BG6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BH6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BI6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BK6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BL6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BM6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BN6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BP6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BQ6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BR6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BS6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BU6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BV6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BW6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BX6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="BZ6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CA6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CB6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CC6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CE6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CF6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CG6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CH6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CI6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CJ6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CK6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CL6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CM6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CN6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CO6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CP6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CQ6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CR6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CS6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CT6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CU6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CV6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
       <c r="CW6" s="1">
-        <v>4.184491978609626</v>
+        <v>4.260666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testavgWordL.xlsx
+++ b/codes/test_shell_output/testavgWordL.xlsx
@@ -376,309 +376,309 @@
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
     </row>
     <row r="6" spans="2:101">
       <c r="B6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="C6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="D6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="E6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="F6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="G6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="H6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="I6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="J6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="K6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="L6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="M6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="N6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="O6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="P6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="R6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="S6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="T6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="U6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="V6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="W6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="X6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="Y6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="Z6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AB6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AC6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AD6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AE6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AG6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AH6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AI6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AL6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AM6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AN6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AO6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AQ6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AR6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AS6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AT6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AV6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AW6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AX6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AY6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BA6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BB6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BC6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BD6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BF6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BG6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BH6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BI6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BK6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BL6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BM6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BN6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BP6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BQ6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BR6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BS6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BU6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BV6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BW6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BX6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="BZ6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CA6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CB6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CC6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CE6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CF6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CG6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CH6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CI6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CJ6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CK6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CL6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CM6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CN6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CO6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CP6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CQ6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CR6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CS6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CT6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CU6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CV6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
       <c r="CW6" s="1">
-        <v>4.260666666666666</v>
+        <v>4.112313937753721</v>
       </c>
     </row>
   </sheetData>
